--- a/Titik Koordinat Pemetaan AP.xlsx
+++ b/Titik Koordinat Pemetaan AP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skripsi-TA\Data TA\Data access point\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7763A746-83EC-4A4B-847B-79433A3CE56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5119856E-955E-4E6C-93B8-A5F9961A5CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{767DCAC9-E0FB-49A2-BFCD-CF2C400FC097}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{767DCAC9-E0FB-49A2-BFCD-CF2C400FC097}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>x</t>
+    <t>a</t>
   </si>
   <si>
-    <t>y</t>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A340B284-3E66-46AC-8958-470C10CBB134}">
   <dimension ref="A1:B1241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1231" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
